--- a/Test cases/1 Тест-кейсы формы Логин/1.1 Баг-репорты.xlsx
+++ b/Test cases/1 Тест-кейсы формы Логин/1.1 Баг-репорты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sdv\Резюме\SDV\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Documents\GitHub\iSpring\Test cases\1 Тест-кейсы формы Логин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D330D6-08D0-4A29-ACC5-480BA90EBB9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87793E7D-88CB-4238-A06E-E1F51552C93C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,7 +752,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -760,7 +760,7 @@
     <col min="2" max="2" width="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="288.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="325.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -776,11 +776,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="264.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="292.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -788,11 +788,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="256.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
     </row>
@@ -812,11 +812,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -824,131 +824,131 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
     </row>
   </sheetData>
